--- a/assignment_02/airplane_data.xlsx
+++ b/assignment_02/airplane_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MORIL027\Documents\UCF\UCF_PMBA_BA\QMB6315S25\QMB6315_assignments\assignment_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/ma608480_ucf_edu/Documents/Desktop/GitHub QMB6315 Python/QMB6315S25/assignment_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B952AF-7CCA-4082-90B7-1F52382C614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1428" windowWidth="17280" windowHeight="11328" activeTab="1" xr2:uid="{9D98C8B2-46AF-4179-B450-E0D5662E3DF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{9D98C8B2-46AF-4179-B450-E0D5662E3DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="airplane_sales" sheetId="1" r:id="rId1"/>
@@ -921,9 +921,9 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -945,7 +945,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -956,7 +956,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -967,7 +967,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>104</v>
       </c>
@@ -978,7 +978,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>105</v>
       </c>
@@ -989,7 +989,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>114</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>11605</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>115</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>11605</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>117</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>14250</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>118</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>119</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>121</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>10750</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>122</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>123</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>124</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>125</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>126</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>127</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>128</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>129</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>13750</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>130</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>131</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>132</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>133</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>134</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>135</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>136</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>137</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>138</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>139</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>140</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>141</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>142</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>15750</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>143</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>144</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>145</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>146</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>147</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>148</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>149</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>150</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>151</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>152</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>153</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>29500</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>154</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>155</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>156</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>157</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>158</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>15250</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>159</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>160</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>161</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>162</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>163</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>164</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>165</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>166</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>167</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>168</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>169</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>170</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>171</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>172</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>173</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>20250</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>174</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>175</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>176</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>29500</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>177</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>178</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>179</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>180</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>65500</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>181</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>74500</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>182</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>183</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>184</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>185</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>186</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>187</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>188</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>189</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>190</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>191</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>192</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>59500</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>193</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>65500</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>194</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>195</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>196</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>197</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>198</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>199</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>200</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>201</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>203</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>204</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>205</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>206</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>207</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>208</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>254000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>209</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>210</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>211</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>212</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>213</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>214</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>215</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>32500</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>216</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>217</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>218</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>219</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>53500</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>220</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>58500</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>221</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>63500</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>222</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>223</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>224</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>225</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>63500</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>226</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>227</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>228</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>229</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>21700</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>230</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>231</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>232</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>233</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>234</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>235</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>236</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>237</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>238</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>239</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>240</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>241</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>242</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>243</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>244</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>245</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>246</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>247</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>248</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>68500</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>249</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>250</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>85500</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>251</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>90500</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>252</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>253</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>254</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>124500</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>255</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>256</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>257</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>68500</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>258</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>259</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>260</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>261</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>262</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>91500</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>263</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>102500</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>264</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>265</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>266</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>267</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>268</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>269</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>270</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>271</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>272</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>177501</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>273</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>154000</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>274</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>177501</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>275</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>74000</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>276</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>277</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>278</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>279</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>134001</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>280</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>281</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>70500</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>282</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>283</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>284</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>285</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>286</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>87500</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>287</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>95500</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>288</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>289</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>88500</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>290</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>291</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>292</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>293</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>294</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>295</v>
       </c>
@@ -3091,13 +3091,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3A86EC-26F9-43B9-B221-1D78EE2AA6C2}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>104</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>105</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>106</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>107</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>108</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>109</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>110</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>111</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>112</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>113</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>114</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>115</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>116</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>117</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>118</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>119</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>120</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>121</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>122</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>123</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>124</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>125</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>126</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>127</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>128</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>129</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>130</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>131</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>132</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>133</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>134</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>135</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>136</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>137</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>138</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>139</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>140</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>141</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>142</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>143</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>144</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>145</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>146</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>147</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>148</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>149</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>150</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>151</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>152</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>153</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>154</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>155</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>156</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>157</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>158</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>159</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>160</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>161</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>162</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>163</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>164</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>165</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>166</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>167</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>168</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>169</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>170</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>171</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>172</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>173</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>174</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>175</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>176</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>177</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>178</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>179</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>180</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>181</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>182</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>183</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>184</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>185</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>186</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>187</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>188</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>189</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>190</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>191</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>192</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>193</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>194</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>195</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>196</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>197</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>198</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>199</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>200</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>201</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>203</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>204</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>205</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>206</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>207</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>208</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>209</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>210</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>211</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>212</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>213</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>214</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>215</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>216</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>217</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>218</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>219</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>220</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>221</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>222</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>223</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>224</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>225</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>226</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>227</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>228</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>229</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>230</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>231</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>232</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>233</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>234</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>235</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>236</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>237</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>238</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>239</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>240</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>241</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>242</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>243</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>244</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>245</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>246</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>247</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>248</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>249</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>250</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>251</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>252</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>253</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>254</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>255</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>256</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>257</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>258</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>259</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>260</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>261</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>262</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>263</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>264</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>265</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>266</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>267</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>268</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>269</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>270</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>271</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>272</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>273</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>274</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>275</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>276</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>277</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>278</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>279</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>280</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>281</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>282</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>283</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>284</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>285</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>286</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>287</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>288</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>289</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>290</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>291</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>292</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>293</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>294</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>295</v>
       </c>
@@ -6441,13 +6441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFC31D9-2551-4050-A1C4-E8E2485CE1F2}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -6464,7 +6462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -6481,7 +6479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -6498,7 +6496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -6515,7 +6513,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>104</v>
       </c>
@@ -6532,7 +6530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>105</v>
       </c>
@@ -6549,7 +6547,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>106</v>
       </c>
@@ -6566,7 +6564,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>107</v>
       </c>
@@ -6583,7 +6581,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>108</v>
       </c>
@@ -6600,7 +6598,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>109</v>
       </c>
@@ -6617,7 +6615,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>110</v>
       </c>
@@ -6634,7 +6632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>111</v>
       </c>
@@ -6651,7 +6649,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>112</v>
       </c>
@@ -6668,7 +6666,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>113</v>
       </c>
@@ -6685,7 +6683,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>114</v>
       </c>
@@ -6702,7 +6700,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>115</v>
       </c>
@@ -6719,7 +6717,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>116</v>
       </c>
@@ -6736,7 +6734,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>117</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>118</v>
       </c>
@@ -6770,7 +6768,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>119</v>
       </c>
@@ -6787,7 +6785,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>120</v>
       </c>
@@ -6804,7 +6802,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>121</v>
       </c>
@@ -6821,7 +6819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>122</v>
       </c>
@@ -6838,7 +6836,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>123</v>
       </c>
@@ -6855,7 +6853,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>124</v>
       </c>
@@ -6872,7 +6870,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>125</v>
       </c>
@@ -6889,7 +6887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>126</v>
       </c>
@@ -6906,7 +6904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>127</v>
       </c>
@@ -6923,7 +6921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>128</v>
       </c>
@@ -6940,7 +6938,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>129</v>
       </c>
@@ -6957,7 +6955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>130</v>
       </c>
@@ -6974,7 +6972,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>131</v>
       </c>
@@ -6991,7 +6989,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>132</v>
       </c>
@@ -7008,7 +7006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>133</v>
       </c>
@@ -7025,7 +7023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>134</v>
       </c>
@@ -7042,7 +7040,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>135</v>
       </c>
@@ -7059,7 +7057,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>136</v>
       </c>
@@ -7076,7 +7074,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>137</v>
       </c>
@@ -7093,7 +7091,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>138</v>
       </c>
@@ -7110,7 +7108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>139</v>
       </c>
@@ -7127,7 +7125,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>140</v>
       </c>
@@ -7144,7 +7142,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>141</v>
       </c>
@@ -7161,7 +7159,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>142</v>
       </c>
@@ -7178,7 +7176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>143</v>
       </c>
@@ -7195,7 +7193,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>144</v>
       </c>
@@ -7212,7 +7210,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>145</v>
       </c>
@@ -7229,7 +7227,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>146</v>
       </c>
@@ -7246,7 +7244,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>147</v>
       </c>
@@ -7263,7 +7261,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>148</v>
       </c>
@@ -7280,7 +7278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>149</v>
       </c>
@@ -7297,7 +7295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>150</v>
       </c>
@@ -7314,7 +7312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>151</v>
       </c>
@@ -7331,7 +7329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>152</v>
       </c>
@@ -7348,7 +7346,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>153</v>
       </c>
@@ -7365,7 +7363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>154</v>
       </c>
@@ -7382,7 +7380,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>155</v>
       </c>
@@ -7399,7 +7397,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>156</v>
       </c>
@@ -7416,7 +7414,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>157</v>
       </c>
@@ -7433,7 +7431,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>158</v>
       </c>
@@ -7450,7 +7448,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>159</v>
       </c>
@@ -7467,7 +7465,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>160</v>
       </c>
@@ -7484,7 +7482,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>161</v>
       </c>
@@ -7501,7 +7499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>162</v>
       </c>
@@ -7518,7 +7516,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>163</v>
       </c>
@@ -7535,7 +7533,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>164</v>
       </c>
@@ -7552,7 +7550,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>165</v>
       </c>
@@ -7569,7 +7567,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>166</v>
       </c>
@@ -7586,7 +7584,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>167</v>
       </c>
@@ -7603,7 +7601,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>168</v>
       </c>
@@ -7620,7 +7618,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>169</v>
       </c>
@@ -7637,7 +7635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>170</v>
       </c>
@@ -7654,7 +7652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>171</v>
       </c>
@@ -7671,7 +7669,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>172</v>
       </c>
@@ -7688,7 +7686,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>173</v>
       </c>
@@ -7705,7 +7703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>174</v>
       </c>
@@ -7722,7 +7720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>175</v>
       </c>
@@ -7739,7 +7737,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>176</v>
       </c>
@@ -7756,7 +7754,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>177</v>
       </c>
@@ -7773,7 +7771,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>178</v>
       </c>
@@ -7790,7 +7788,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>179</v>
       </c>
@@ -7807,7 +7805,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>180</v>
       </c>
@@ -7824,7 +7822,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>181</v>
       </c>
@@ -7841,7 +7839,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>182</v>
       </c>
@@ -7858,7 +7856,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>183</v>
       </c>
@@ -7875,7 +7873,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>184</v>
       </c>
@@ -7892,7 +7890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>185</v>
       </c>
@@ -7909,7 +7907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>186</v>
       </c>
@@ -7926,7 +7924,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>187</v>
       </c>
@@ -7943,7 +7941,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>188</v>
       </c>
@@ -7960,7 +7958,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>189</v>
       </c>
@@ -7977,7 +7975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>190</v>
       </c>
@@ -7994,7 +7992,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>191</v>
       </c>
@@ -8011,7 +8009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>192</v>
       </c>
@@ -8028,7 +8026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>193</v>
       </c>
@@ -8045,7 +8043,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>194</v>
       </c>
@@ -8062,7 +8060,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>195</v>
       </c>
@@ -8079,7 +8077,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>196</v>
       </c>
@@ -8096,7 +8094,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>197</v>
       </c>
@@ -8113,7 +8111,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>198</v>
       </c>
@@ -8130,7 +8128,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>199</v>
       </c>
@@ -8147,7 +8145,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>200</v>
       </c>
@@ -8164,7 +8162,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>201</v>
       </c>
@@ -8181,7 +8179,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202</v>
       </c>
@@ -8198,7 +8196,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>203</v>
       </c>
@@ -8215,7 +8213,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>204</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>205</v>
       </c>
@@ -8249,7 +8247,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>206</v>
       </c>
@@ -8266,7 +8264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>207</v>
       </c>
@@ -8283,7 +8281,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>208</v>
       </c>
@@ -8300,7 +8298,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>209</v>
       </c>
@@ -8317,7 +8315,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>210</v>
       </c>
@@ -8334,7 +8332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>211</v>
       </c>
@@ -8351,7 +8349,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>212</v>
       </c>
@@ -8368,7 +8366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>213</v>
       </c>
@@ -8385,7 +8383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>214</v>
       </c>
@@ -8402,7 +8400,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>215</v>
       </c>
@@ -8419,7 +8417,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>216</v>
       </c>
@@ -8436,7 +8434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>217</v>
       </c>
@@ -8453,7 +8451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>218</v>
       </c>
@@ -8470,7 +8468,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>219</v>
       </c>
@@ -8487,7 +8485,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>220</v>
       </c>
@@ -8504,7 +8502,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>221</v>
       </c>
@@ -8521,7 +8519,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>222</v>
       </c>
@@ -8538,7 +8536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>223</v>
       </c>
@@ -8555,7 +8553,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>224</v>
       </c>
@@ -8572,7 +8570,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>225</v>
       </c>
@@ -8589,7 +8587,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>226</v>
       </c>
@@ -8606,7 +8604,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>227</v>
       </c>
@@ -8623,7 +8621,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>228</v>
       </c>
@@ -8640,7 +8638,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>229</v>
       </c>
@@ -8657,7 +8655,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>230</v>
       </c>
@@ -8674,7 +8672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>231</v>
       </c>
@@ -8691,7 +8689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>232</v>
       </c>
@@ -8708,7 +8706,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>233</v>
       </c>
@@ -8725,7 +8723,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>234</v>
       </c>
@@ -8742,7 +8740,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>235</v>
       </c>
@@ -8759,7 +8757,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>236</v>
       </c>
@@ -8776,7 +8774,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>237</v>
       </c>
@@ -8793,7 +8791,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>238</v>
       </c>
@@ -8810,7 +8808,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>239</v>
       </c>
@@ -8827,7 +8825,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>240</v>
       </c>
@@ -8844,7 +8842,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>241</v>
       </c>
@@ -8861,7 +8859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>242</v>
       </c>
@@ -8878,7 +8876,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>243</v>
       </c>
@@ -8895,7 +8893,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>244</v>
       </c>
@@ -8912,7 +8910,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>245</v>
       </c>
@@ -8929,7 +8927,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>246</v>
       </c>
@@ -8946,7 +8944,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>247</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>248</v>
       </c>
@@ -8980,7 +8978,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>249</v>
       </c>
@@ -8997,7 +8995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>250</v>
       </c>
@@ -9014,7 +9012,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>251</v>
       </c>
@@ -9031,7 +9029,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>252</v>
       </c>
@@ -9048,7 +9046,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>253</v>
       </c>
@@ -9065,7 +9063,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>254</v>
       </c>
@@ -9082,7 +9080,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>255</v>
       </c>
@@ -9099,7 +9097,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>256</v>
       </c>
@@ -9116,7 +9114,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>257</v>
       </c>
@@ -9133,7 +9131,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>258</v>
       </c>
@@ -9150,7 +9148,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>259</v>
       </c>
@@ -9167,7 +9165,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>260</v>
       </c>
@@ -9184,7 +9182,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>261</v>
       </c>
@@ -9201,7 +9199,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>262</v>
       </c>
@@ -9218,7 +9216,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>263</v>
       </c>
@@ -9235,7 +9233,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>264</v>
       </c>
@@ -9252,7 +9250,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>265</v>
       </c>
@@ -9269,7 +9267,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>266</v>
       </c>
@@ -9286,7 +9284,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>267</v>
       </c>
@@ -9303,7 +9301,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>268</v>
       </c>
@@ -9320,7 +9318,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>269</v>
       </c>
@@ -9337,7 +9335,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>270</v>
       </c>
@@ -9354,7 +9352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>271</v>
       </c>
@@ -9371,7 +9369,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>272</v>
       </c>
@@ -9388,7 +9386,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>273</v>
       </c>
@@ -9405,7 +9403,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>274</v>
       </c>
@@ -9422,7 +9420,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>275</v>
       </c>
@@ -9439,7 +9437,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>276</v>
       </c>
@@ -9456,7 +9454,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>277</v>
       </c>
@@ -9473,7 +9471,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>278</v>
       </c>
@@ -9490,7 +9488,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>279</v>
       </c>
@@ -9507,7 +9505,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>280</v>
       </c>
@@ -9524,7 +9522,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>281</v>
       </c>
@@ -9541,7 +9539,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>282</v>
       </c>
@@ -9558,7 +9556,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>283</v>
       </c>
@@ -9575,7 +9573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>284</v>
       </c>
@@ -9592,7 +9590,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>285</v>
       </c>
@@ -9609,7 +9607,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>286</v>
       </c>
@@ -9626,7 +9624,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>287</v>
       </c>
@@ -9643,7 +9641,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>288</v>
       </c>
@@ -9660,7 +9658,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>289</v>
       </c>
@@ -9677,7 +9675,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>290</v>
       </c>
@@ -9694,7 +9692,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>291</v>
       </c>
@@ -9711,7 +9709,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>292</v>
       </c>
@@ -9728,7 +9726,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>293</v>
       </c>
@@ -9745,7 +9743,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>294</v>
       </c>
@@ -9762,7 +9760,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>295</v>
       </c>
